--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -2263,8 +2263,16 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/29C96zHAkhWQ15Dj9</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>&lt;---Link for Pig Waupun</t>
+        </is>
+      </c>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr">
         <is>
@@ -2321,21 +2329,9 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
@@ -2386,17 +2382,17 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve">@ Store w/ Sarah </t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2450,17 +2446,17 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>meet Sarah 5am @ Pig Waupun</t>
+          <t xml:space="preserve">@ Store w/ Sarah </t>
         </is>
       </c>
       <c r="H40" t="inlineStr"/>
@@ -2519,17 +2515,17 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>meet Sarah 5am @ Pig Waupun</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2586,17 +2582,17 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2654,12 +2650,12 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2721,12 +2717,12 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2788,12 +2784,12 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2851,12 +2847,12 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2924,9 +2920,21 @@
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>9)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
@@ -3018,16 +3026,8 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6:00 AM START </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
@@ -3061,10 +3061,14 @@
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3103,7 +3107,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>ROTE OIL #03 TWIN LAKES</t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3146,7 +3150,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>475 N LAKE AVE</t>
+          <t>ROTE OIL #03 TWIN LAKES</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3189,7 +3193,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
+          <t>475 N LAKE AVE</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -3224,7 +3228,7 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t xml:space="preserve">https://goo.gl/maps/jNgJR8hii6jJGZQP7 </t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -3259,7 +3263,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -3298,7 +3302,7 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>ROTE OIL #04 GENOA CITY</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3337,7 +3341,7 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t xml:space="preserve">100 ELIZABETH LANE    </t>
+          <t>ROTE OIL #04 GENOA CITY</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3380,7 +3384,7 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
+          <t xml:space="preserve">100 ELIZABETH LANE    </t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -3419,7 +3423,7 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>https://goo.gl/maps/DitGJzEvTVhJPxkJ8</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -3458,7 +3462,7 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -3497,7 +3501,7 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>ROTE OIL #05  LAKE GENEVA</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -3536,7 +3540,7 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>300 PELLER RD</t>
+          <t>ROTE OIL #05  LAKE GENEVA</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -3575,7 +3579,7 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+          <t>300 PELLER RD</t>
         </is>
       </c>
       <c r="G63" t="inlineStr"/>
@@ -3612,7 +3616,11 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/6fegzT1PbyY5VkDR6</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -3638,21 +3646,9 @@
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -3679,17 +3675,17 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H66" t="inlineStr"/>
@@ -3722,12 +3718,12 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -3763,9 +3759,21 @@
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
@@ -3826,11 +3834,7 @@
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -3863,7 +3867,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="G71" t="inlineStr"/>
@@ -3898,7 +3902,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>KELLEY #64, CORTLAND MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G72" t="inlineStr"/>
@@ -3933,7 +3937,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15 W LINCOLN HWY</t>
+          <t>KELLEY #64, CORTLAND MOBIL</t>
         </is>
       </c>
       <c r="G73" t="inlineStr"/>
@@ -3968,7 +3972,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
+          <t>15 W LINCOLN HWY</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -4003,7 +4007,7 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:30 am at IL Office</t>
+          <t>https://goo.gl/maps/J3eqmpHTTNT2</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -4036,7 +4040,11 @@
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>*IL Meet is 5:30 am at IL Office</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
@@ -4066,21 +4074,9 @@
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
@@ -4111,18 +4107,17 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Driver,
-Corolla</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -4155,15 +4150,20 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
       <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
@@ -4194,19 +4194,15 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
@@ -4237,15 +4233,19 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
@@ -4276,12 +4276,12 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -4315,19 +4315,15 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
@@ -4356,9 +4352,21 @@
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -3279,7 +3279,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Rockford Office</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3314,14 +3314,10 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Misc auto</t>
-        </is>
-      </c>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
@@ -3363,7 +3359,11 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
+        </is>
+      </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3402,7 +3402,11 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1175 W SPRING ST</t>
+        </is>
+      </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3441,7 +3445,11 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+        </is>
+      </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3518,9 +3526,21 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3557,9 +3577,21 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3596,9 +3628,21 @@
       </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3627,9 +3671,21 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3654,9 +3710,21 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3697,9 +3765,21 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3740,9 +3820,21 @@
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -1539,7 +1539,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t xml:space="preserve">6:00 AM START </t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>1175 W SPRING ST</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1787,11 +1787,7 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>*EMILY IS THE DM</t>
-        </is>
-      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -1829,9 +1825,21 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -1878,17 +1886,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>Camry 3 available, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -1945,15 +1953,19 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2013,15 +2025,19 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr"/>
+          <t>Monica</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2077,15 +2093,19 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2141,15 +2161,19 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr"/>
+          <t>Sonia</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2213,15 +2237,19 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2290,16 +2318,8 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2414,7 +2434,11 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2480,7 +2504,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2548,7 +2572,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2616,7 +2640,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2683,7 +2707,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>5810 E STATE ST</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2750,7 +2774,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
+          <t>*EMILY IS THE DM</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2884,12 +2908,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>Camry 3 available, Equip</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2959,7 +2983,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3006,7 +3030,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3041,7 +3065,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Ashley P</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3084,7 +3108,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3127,7 +3151,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3170,7 +3194,7 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O52" t="inlineStr"/>
@@ -3279,7 +3303,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3314,7 +3338,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3361,7 +3385,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3404,7 +3428,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>1175 W SPRING ST</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3447,7 +3471,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3533,12 +3557,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
@@ -3584,14 +3608,10 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
@@ -3635,14 +3655,10 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Laci</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
       <c r="R63" t="inlineStr"/>
@@ -3678,14 +3694,10 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr"/>
@@ -3717,14 +3729,10 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3772,14 +3780,10 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>
       <c r="R66" t="inlineStr"/>
@@ -3827,14 +3831,10 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -3506,7 +3506,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="K60" t="inlineStr"/>
@@ -3545,7 +3545,7 @@
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="K61" t="inlineStr"/>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="K62" t="inlineStr"/>
@@ -3636,16 +3636,8 @@
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
@@ -3655,7 +3647,7 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3694,7 +3686,7 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O64" t="inlineStr"/>
@@ -3729,7 +3721,7 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O65" t="inlineStr"/>
@@ -3780,7 +3772,7 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -3824,16 +3816,8 @@
       </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -1539,7 +1539,7 @@
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
-          <t xml:space="preserve">6:00 AM START </t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1647,7 +1647,7 @@
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
-          <t>FRANK'S FRESHWAY MARKET, SOUTH ELGIN, IL</t>
+          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -1703,7 +1703,7 @@
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
-          <t>1175 W SPRING ST</t>
+          <t>8061 E STATE ST</t>
         </is>
       </c>
       <c r="O27" t="inlineStr"/>
@@ -1746,7 +1746,7 @@
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/8bGoNpJNFvdvbLTN8</t>
+          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -1787,7 +1787,11 @@
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>*EMILY IS THE DM</t>
+        </is>
+      </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
@@ -1825,21 +1829,9 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Brianna</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -1886,17 +1878,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Camry 3 available, Equip</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -1953,19 +1945,15 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr">
@@ -2025,19 +2013,15 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Monica</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
@@ -2093,19 +2077,15 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr"/>
@@ -2161,19 +2141,15 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Sonia</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr">
         <is>
@@ -2237,19 +2213,15 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr">
         <is>
@@ -2318,8 +2290,16 @@
         </is>
       </c>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Michael N</t>
+        </is>
+      </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
@@ -2434,11 +2414,7 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2504,7 +2480,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2572,7 +2548,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>KELLEY #35, LYFORD MOBIL, ROCKFORD</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2640,7 +2616,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>8061 E STATE ST</t>
+          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2707,7 +2683,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/kRn7nT8C7Vk</t>
+          <t>5810 E STATE ST</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2774,7 +2750,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>*EMILY IS THE DM</t>
+          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2908,12 +2884,12 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Mike G</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Camry 3 available, Equip</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -2983,7 +2959,7 @@
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3030,7 +3006,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O48" t="inlineStr"/>
@@ -3065,7 +3041,7 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O49" t="inlineStr"/>
@@ -3108,7 +3084,7 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O50" t="inlineStr"/>
@@ -3151,7 +3127,7 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O51" t="inlineStr"/>
@@ -3187,16 +3163,8 @@
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Michael N</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -3301,11 +3269,7 @@
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
@@ -3336,11 +3300,7 @@
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>MODAS</t>
-        </is>
-      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
@@ -3383,11 +3343,7 @@
       </c>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>KELLEY #40, MARKETSIDE MOBIL, ROCKFORD</t>
-        </is>
-      </c>
+      <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
@@ -3426,11 +3382,7 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>5810 E STATE ST</t>
-        </is>
-      </c>
+      <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
@@ -3469,11 +3421,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/q7CN8T4aEcR2</t>
-        </is>
-      </c>
+      <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
@@ -3550,21 +3498,9 @@
       </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
@@ -3601,16 +3537,8 @@
       </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Emily L</t>
-        </is>
-      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr"/>
@@ -3640,16 +3568,8 @@
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Lorena</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr"/>
@@ -3679,16 +3599,8 @@
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3714,16 +3626,8 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
@@ -3765,16 +3669,8 @@
       </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3623,7 +3623,11 @@
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>5:30 AM START</t>
+        </is>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
@@ -3664,7 +3668,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr">
         <is>
-          <t>5:30 AM START</t>
+          <t xml:space="preserve">DC5-FINANCIAL  </t>
         </is>
       </c>
       <c r="K66" t="inlineStr"/>
@@ -3707,7 +3711,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL  </t>
+          <t>ROTE OIL #6 HUBERTUS</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -3750,7 +3754,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr">
         <is>
-          <t>ROTE OIL #6 HUBERTUS</t>
+          <t>1306 HWY 175</t>
         </is>
       </c>
       <c r="K68" t="inlineStr"/>
@@ -3781,7 +3785,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr">
         <is>
-          <t>1306 HWY 175</t>
+          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
         </is>
       </c>
       <c r="K69" t="inlineStr"/>
@@ -3812,7 +3816,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/SZRuQ4FHA1cX2ZmC8</t>
+          <t xml:space="preserve">TO FOLLOW   </t>
         </is>
       </c>
       <c r="K70" t="inlineStr"/>
@@ -3847,7 +3851,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW   </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="K71" t="inlineStr"/>
@@ -3882,7 +3886,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>ROTE OIL #7 MILWAUKEE</t>
         </is>
       </c>
       <c r="K72" t="inlineStr"/>
@@ -3917,7 +3921,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr">
         <is>
-          <t>ROTE OIL #7 MILWAUKEE</t>
+          <t>5931 N 91ST ST</t>
         </is>
       </c>
       <c r="K73" t="inlineStr"/>
@@ -3952,7 +3956,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr">
         <is>
-          <t>5931 N 91ST ST</t>
+          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
         </is>
       </c>
       <c r="K74" t="inlineStr"/>
@@ -3987,7 +3991,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/cw58s7atAhTAGHNd7</t>
+          <t xml:space="preserve">TO FOLLOW      </t>
         </is>
       </c>
       <c r="K75" t="inlineStr"/>
@@ -4022,7 +4026,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW      </t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="K76" t="inlineStr"/>
@@ -4053,7 +4057,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>ROTE OIL #8 ELM GROVE</t>
         </is>
       </c>
       <c r="K77" t="inlineStr"/>
@@ -4096,7 +4100,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr">
         <is>
-          <t>ROTE OIL #8 ELM GROVE</t>
+          <t>13395 WATERTOWN PLANK RD</t>
         </is>
       </c>
       <c r="K78" t="inlineStr"/>
@@ -4140,7 +4144,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr">
         <is>
-          <t>13395 WATERTOWN PLANK RD</t>
+          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
         </is>
       </c>
       <c r="K79" t="inlineStr"/>
@@ -4179,7 +4183,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/5zXAKpcRHDmA17UK9</t>
+          <t xml:space="preserve">TO FOLLOW     </t>
         </is>
       </c>
       <c r="K80" t="inlineStr"/>
@@ -4222,7 +4226,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW     </t>
+          <t xml:space="preserve">DC5-FINANCIAL </t>
         </is>
       </c>
       <c r="K81" t="inlineStr"/>
@@ -4261,7 +4265,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr">
         <is>
-          <t xml:space="preserve">DC5-FINANCIAL </t>
+          <t>ROTE OIL #09 GREENFIELD</t>
         </is>
       </c>
       <c r="K82" t="inlineStr"/>
@@ -4300,7 +4304,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr">
         <is>
-          <t>ROTE OIL #09 GREENFIELD</t>
+          <t>12345 W LAYTON AVE</t>
         </is>
       </c>
       <c r="K83" t="inlineStr"/>
@@ -4343,7 +4347,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr">
         <is>
-          <t>12345 W LAYTON AVE</t>
+          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
         </is>
       </c>
       <c r="K84" t="inlineStr"/>
@@ -4372,11 +4376,7 @@
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TSgMUriHbJPX9hGE7</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
@@ -4402,9 +4402,21 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="L86" t="inlineStr"/>
       <c r="M86" t="inlineStr"/>
       <c r="N86" t="inlineStr"/>
@@ -4431,17 +4443,17 @@
       <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="L87" t="inlineStr"/>
@@ -4470,12 +4482,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -4498,45 +4510,6 @@
       <c r="X88" t="inlineStr"/>
       <c r="Y88" t="inlineStr"/>
     </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
-      <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -2194,7 +2194,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori - 100 Gateway Dr - Pig Waupun</t>
+          <t>4:00 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori - Pig Waupun</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>

--- a/01-26-25 to 02-01-25 Madison Schedule.xlsx
+++ b/01-26-25 to 02-01-25 Madison Schedule.xlsx
@@ -2897,21 +2897,9 @@
       <c r="R46" t="inlineStr"/>
       <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
     </row>
